--- a/exports/L149-tok.xml-result-csv.xlsx
+++ b/exports/L149-tok.xml-result-csv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackbowers/Box Sync/Language_Data/Mixtepec_Mixtec/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6600D3CA-7DD8-0C47-BC00-8C7847446023}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178E2152-2B60-E240-B655-0063B7C56A92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{1FE330D7-825B-5E4B-A4EB-D374258DA0EF}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="464">
   <si>
     <t>Orth</t>
   </si>
@@ -1444,6 +1444,9 @@
   </si>
   <si>
     <t>related to "ntsinu"</t>
+  </si>
+  <si>
+    <t>TRUNK</t>
   </si>
 </sst>
 </file>
@@ -1914,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C824E175-08BF-554E-BC21-F711D313C5EA}">
   <dimension ref="A1:O221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188:XFD188"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4097,11 +4100,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="C108" s="15"/>
+      <c r="C108" s="15" t="s">
+        <v>463</v>
+      </c>
       <c r="E108" s="16" t="s">
         <v>350</v>
       </c>
